--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I727"/>
+  <dimension ref="A1:I728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25827,6 +25827,41 @@
         <v>132200</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G728" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I728" t="n">
+        <v>136400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I728"/>
+  <dimension ref="A1:I729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25862,6 +25862,41 @@
         <v>136400</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I729" t="n">
+        <v>1026200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I729"/>
+  <dimension ref="A1:I730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25897,6 +25897,41 @@
         <v>1026200</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I730" t="n">
+        <v>460500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I730"/>
+  <dimension ref="A1:I731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25932,6 +25932,41 @@
         <v>460500</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I731" t="n">
+        <v>144600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I731"/>
+  <dimension ref="A1:I732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25967,6 +25967,41 @@
         <v>144600</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I732" t="n">
+        <v>384500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I732"/>
+  <dimension ref="A1:I733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26002,6 +26002,41 @@
         <v>384500</v>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F733" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I733" t="n">
+        <v>738000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I733"/>
+  <dimension ref="A1:I734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26037,6 +26037,41 @@
         <v>738000</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I734" t="n">
+        <v>85700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I734"/>
+  <dimension ref="A1:I735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26072,6 +26072,41 @@
         <v>85700</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G735" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I735" t="n">
+        <v>283200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I735"/>
+  <dimension ref="A1:I736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26107,6 +26107,41 @@
         <v>283200</v>
       </c>
     </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F736" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G736" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I736" t="n">
+        <v>106400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I736"/>
+  <dimension ref="A1:I737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26142,6 +26142,41 @@
         <v>106400</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F737" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G737" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I737" t="n">
+        <v>418800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I737"/>
+  <dimension ref="A1:I738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26177,6 +26177,41 @@
         <v>418800</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G738" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I738" t="n">
+        <v>98600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I738"/>
+  <dimension ref="A1:I739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26212,6 +26212,41 @@
         <v>98600</v>
       </c>
     </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G739" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I739" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I739"/>
+  <dimension ref="A1:I741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26247,6 +26247,76 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G740" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I740" t="n">
+        <v>311000</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F741" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G741" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I741" t="n">
+        <v>317700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I741"/>
+  <dimension ref="A1:I743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26317,6 +26317,76 @@
         <v>317700</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I742" t="n">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I743" t="n">
+        <v>202300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I743"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26387,6 +26387,41 @@
         <v>202300</v>
       </c>
     </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I744" t="n">
+        <v>116000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I744"/>
+  <dimension ref="A1:I745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26422,6 +26422,41 @@
         <v>116000</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F745" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I745" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I745"/>
+  <dimension ref="A1:I746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26457,6 +26457,41 @@
         <v>12000000</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F746" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I746" t="n">
+        <v>346500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I746"/>
+  <dimension ref="A1:I747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26492,6 +26492,41 @@
         <v>346500</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F747" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G747" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I747" t="n">
+        <v>642100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I747"/>
+  <dimension ref="A1:I749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26527,6 +26527,76 @@
         <v>642100</v>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G748" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I748" t="n">
+        <v>633800</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G749" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I749" t="n">
+        <v>280400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I749"/>
+  <dimension ref="A1:I750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26597,6 +26597,41 @@
         <v>280400</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I750" t="n">
+        <v>652300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I750"/>
+  <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26632,6 +26632,41 @@
         <v>652300</v>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F751" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G751" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I751" t="n">
+        <v>1225900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I751"/>
+  <dimension ref="A1:I760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24114,11 +24114,11 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -24132,28 +24132,28 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
       <c r="F679" t="n">
         <v>0.85</v>
       </c>
       <c r="G679" t="n">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="H679" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I679" t="n">
-        <v>91600</v>
+        <v>168900</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -24176,19 +24176,19 @@
         <v>0.845</v>
       </c>
       <c r="H680" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="I680" t="n">
-        <v>14500</v>
+        <v>91400</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -24202,28 +24202,28 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="F681" t="n">
         <v>0.85</v>
       </c>
       <c r="G681" t="n">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="H681" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="I681" t="n">
-        <v>161000</v>
+        <v>258200</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -24237,28 +24237,28 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="F682" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="G682" t="n">
         <v>0.84</v>
       </c>
       <c r="H682" t="n">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="I682" t="n">
-        <v>287600</v>
+        <v>950700</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -24272,28 +24272,28 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F683" t="n">
         <v>0.85</v>
       </c>
       <c r="G683" t="n">
-        <v>0.835</v>
+        <v>0.845</v>
       </c>
       <c r="H683" t="n">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
       <c r="I683" t="n">
-        <v>13900</v>
+        <v>56600</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -24307,28 +24307,28 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
       <c r="F684" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G684" t="n">
         <v>0.85</v>
       </c>
-      <c r="G684" t="n">
-        <v>0.845</v>
-      </c>
       <c r="H684" t="n">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
       <c r="I684" t="n">
-        <v>9000</v>
+        <v>71400</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -24342,10 +24342,10 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
       <c r="F685" t="n">
-        <v>0.85</v>
+        <v>0.855</v>
       </c>
       <c r="G685" t="n">
         <v>0.845</v>
@@ -24354,16 +24354,16 @@
         <v>0.845</v>
       </c>
       <c r="I685" t="n">
-        <v>78400</v>
+        <v>104300</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -24377,28 +24377,28 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>0.85</v>
+        <v>0.855</v>
       </c>
       <c r="F686" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="G686" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="H686" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="I686" t="n">
-        <v>302900</v>
+        <v>124800</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -24412,28 +24412,28 @@
         </is>
       </c>
       <c r="E687" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F687" t="n">
         <v>0.85</v>
       </c>
-      <c r="F687" t="n">
-        <v>0.86</v>
-      </c>
       <c r="G687" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H687" t="n">
         <v>0.85</v>
       </c>
-      <c r="H687" t="n">
-        <v>0.86</v>
-      </c>
       <c r="I687" t="n">
-        <v>213000</v>
+        <v>54800</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -24447,28 +24447,28 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="F688" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="G688" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="H688" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I688" t="n">
-        <v>152800</v>
+        <v>91600</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -24482,28 +24482,28 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="F689" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="G689" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="H689" t="n">
         <v>0.85</v>
       </c>
       <c r="I689" t="n">
-        <v>56000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -24517,28 +24517,28 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="F690" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G690" t="n">
-        <v>0.855</v>
+        <v>0.84</v>
       </c>
       <c r="H690" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I690" t="n">
-        <v>23200</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -24552,28 +24552,28 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F691" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G691" t="n">
-        <v>0.855</v>
+        <v>0.84</v>
       </c>
       <c r="H691" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I691" t="n">
-        <v>41800</v>
+        <v>287600</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24587,28 +24587,28 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F692" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="G692" t="n">
-        <v>0.855</v>
+        <v>0.835</v>
       </c>
       <c r="H692" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="I692" t="n">
-        <v>151000</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -24622,28 +24622,28 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="F693" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G693" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="H693" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="I693" t="n">
-        <v>28200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -24657,28 +24657,28 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="F694" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="G694" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="H694" t="n">
-        <v>0.865</v>
+        <v>0.845</v>
       </c>
       <c r="I694" t="n">
-        <v>106700</v>
+        <v>78400</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24692,28 +24692,28 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="F695" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G695" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="H695" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="I695" t="n">
-        <v>162000</v>
+        <v>302900</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24727,28 +24727,28 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="F696" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G696" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="H696" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I696" t="n">
-        <v>135400</v>
+        <v>213000</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24762,28 +24762,28 @@
         </is>
       </c>
       <c r="E697" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F697" t="n">
         <v>0.865</v>
       </c>
-      <c r="F697" t="n">
-        <v>0.87</v>
-      </c>
       <c r="G697" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="H697" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="I697" t="n">
-        <v>45100</v>
+        <v>152800</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24797,28 +24797,28 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="F698" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="G698" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="H698" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="I698" t="n">
-        <v>1598800</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24832,28 +24832,28 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="F699" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G699" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="H699" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="I699" t="n">
-        <v>100200</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24867,28 +24867,28 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="F700" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="G700" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="H700" t="n">
         <v>0.86</v>
       </c>
       <c r="I700" t="n">
-        <v>175800</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24902,28 +24902,28 @@
         </is>
       </c>
       <c r="E701" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F701" t="n">
         <v>0.865</v>
       </c>
-      <c r="F701" t="n">
-        <v>0.87</v>
-      </c>
       <c r="G701" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H701" t="n">
         <v>0.86</v>
       </c>
-      <c r="H701" t="n">
-        <v>0.865</v>
-      </c>
       <c r="I701" t="n">
-        <v>32600</v>
+        <v>151000</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24937,28 +24937,28 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>0.865</v>
+        <v>0.86</v>
       </c>
       <c r="F702" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G702" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="H702" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I702" t="n">
-        <v>179900</v>
+        <v>28200</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24972,28 +24972,28 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>0.88</v>
+        <v>0.855</v>
       </c>
       <c r="F703" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="G703" t="n">
-        <v>0.875</v>
+        <v>0.855</v>
       </c>
       <c r="H703" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="I703" t="n">
-        <v>845700</v>
+        <v>106700</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -25007,28 +25007,28 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="F704" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G704" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="H704" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="I704" t="n">
-        <v>111400</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -25042,28 +25042,28 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="F705" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G705" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H705" t="n">
         <v>0.87</v>
       </c>
-      <c r="H705" t="n">
-        <v>0.88</v>
-      </c>
       <c r="I705" t="n">
-        <v>279200</v>
+        <v>135400</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -25077,28 +25077,28 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="F706" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G706" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="H706" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="I706" t="n">
-        <v>58000</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -25112,28 +25112,28 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="F707" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G707" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="H707" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="I707" t="n">
-        <v>65800</v>
+        <v>1598800</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -25147,28 +25147,28 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="F708" t="n">
-        <v>0.885</v>
+        <v>0.87</v>
       </c>
       <c r="G708" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="H708" t="n">
-        <v>0.885</v>
+        <v>0.865</v>
       </c>
       <c r="I708" t="n">
-        <v>53200</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -25182,28 +25182,28 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="F709" t="n">
-        <v>0.885</v>
+        <v>0.875</v>
       </c>
       <c r="G709" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="H709" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="I709" t="n">
-        <v>27100</v>
+        <v>175800</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -25217,28 +25217,28 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0.89</v>
+        <v>0.865</v>
       </c>
       <c r="F710" t="n">
-        <v>0.895</v>
+        <v>0.87</v>
       </c>
       <c r="G710" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="H710" t="n">
-        <v>0.895</v>
+        <v>0.865</v>
       </c>
       <c r="I710" t="n">
-        <v>203100</v>
+        <v>32600</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -25252,28 +25252,28 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>0.895</v>
+        <v>0.865</v>
       </c>
       <c r="F711" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G711" t="n">
-        <v>0.895</v>
+        <v>0.865</v>
       </c>
       <c r="H711" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="I711" t="n">
-        <v>177500</v>
+        <v>179900</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -25287,28 +25287,28 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F712" t="n">
-        <v>0.915</v>
+        <v>0.88</v>
       </c>
       <c r="G712" t="n">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="H712" t="n">
-        <v>0.905</v>
+        <v>0.88</v>
       </c>
       <c r="I712" t="n">
-        <v>686500</v>
+        <v>845700</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -25322,28 +25322,28 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.915</v>
+        <v>0.88</v>
       </c>
       <c r="F713" t="n">
-        <v>0.915</v>
+        <v>0.88</v>
       </c>
       <c r="G713" t="n">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="H713" t="n">
-        <v>0.905</v>
+        <v>0.875</v>
       </c>
       <c r="I713" t="n">
-        <v>1332400</v>
+        <v>111400</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -25357,28 +25357,28 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="F714" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G714" t="n">
-        <v>0.905</v>
+        <v>0.87</v>
       </c>
       <c r="H714" t="n">
-        <v>0.905</v>
+        <v>0.88</v>
       </c>
       <c r="I714" t="n">
-        <v>52000</v>
+        <v>279200</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -25392,28 +25392,28 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>0.905</v>
+        <v>0.875</v>
       </c>
       <c r="F715" t="n">
-        <v>0.915</v>
+        <v>0.88</v>
       </c>
       <c r="G715" t="n">
-        <v>0.905</v>
+        <v>0.87</v>
       </c>
       <c r="H715" t="n">
-        <v>0.905</v>
+        <v>0.88</v>
       </c>
       <c r="I715" t="n">
-        <v>555500</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -25427,28 +25427,28 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F716" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G716" t="n">
-        <v>0.905</v>
+        <v>0.875</v>
       </c>
       <c r="H716" t="n">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="I716" t="n">
-        <v>221500</v>
+        <v>65800</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -25462,28 +25462,28 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>0.905</v>
+        <v>0.875</v>
       </c>
       <c r="F717" t="n">
-        <v>0.905</v>
+        <v>0.885</v>
       </c>
       <c r="G717" t="n">
-        <v>0.905</v>
+        <v>0.875</v>
       </c>
       <c r="H717" t="n">
-        <v>0.905</v>
+        <v>0.885</v>
       </c>
       <c r="I717" t="n">
-        <v>276400</v>
+        <v>53200</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -25497,28 +25497,28 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>0.905</v>
+        <v>0.88</v>
       </c>
       <c r="F718" t="n">
-        <v>0.905</v>
+        <v>0.885</v>
       </c>
       <c r="G718" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="H718" t="n">
-        <v>0.905</v>
+        <v>0.885</v>
       </c>
       <c r="I718" t="n">
-        <v>631600</v>
+        <v>27100</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -25532,28 +25532,28 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F719" t="n">
-        <v>0.91</v>
+        <v>0.895</v>
       </c>
       <c r="G719" t="n">
-        <v>0.9</v>
+        <v>0.885</v>
       </c>
       <c r="H719" t="n">
-        <v>0.905</v>
+        <v>0.895</v>
       </c>
       <c r="I719" t="n">
-        <v>139300</v>
+        <v>203100</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -25567,28 +25567,28 @@
         </is>
       </c>
       <c r="E720" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F720" t="n">
         <v>0.9</v>
       </c>
-      <c r="F720" t="n">
-        <v>0.905</v>
-      </c>
       <c r="G720" t="n">
-        <v>0.885</v>
+        <v>0.895</v>
       </c>
       <c r="H720" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="I720" t="n">
-        <v>3241600</v>
+        <v>177500</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -25602,28 +25602,28 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="F721" t="n">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
       <c r="G721" t="n">
-        <v>0.885</v>
+        <v>0.9</v>
       </c>
       <c r="H721" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="I721" t="n">
-        <v>303200</v>
+        <v>686500</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -25637,28 +25637,28 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
       <c r="F722" t="n">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
       <c r="G722" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="H722" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="I722" t="n">
-        <v>796100</v>
+        <v>1332400</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -25672,28 +25672,28 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>0.895</v>
+        <v>0.91</v>
       </c>
       <c r="F723" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G723" t="n">
-        <v>0.89</v>
+        <v>0.905</v>
       </c>
       <c r="H723" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="I723" t="n">
-        <v>295300</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -25707,28 +25707,28 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="F724" t="n">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
       <c r="G724" t="n">
-        <v>0.89</v>
+        <v>0.905</v>
       </c>
       <c r="H724" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="I724" t="n">
-        <v>71500</v>
+        <v>555500</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25742,28 +25742,28 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>0.895</v>
+        <v>0.91</v>
       </c>
       <c r="F725" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G725" t="n">
-        <v>0.89</v>
+        <v>0.905</v>
       </c>
       <c r="H725" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I725" t="n">
-        <v>57300</v>
+        <v>221500</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25777,28 +25777,28 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="F726" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="G726" t="n">
-        <v>0.89</v>
+        <v>0.905</v>
       </c>
       <c r="H726" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="I726" t="n">
-        <v>122000</v>
+        <v>276400</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25812,28 +25812,28 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="F727" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="G727" t="n">
         <v>0.89</v>
       </c>
       <c r="H727" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="I727" t="n">
-        <v>132200</v>
+        <v>631600</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -25847,28 +25847,28 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="F728" t="n">
-        <v>0.895</v>
+        <v>0.91</v>
       </c>
       <c r="G728" t="n">
-        <v>0.885</v>
+        <v>0.9</v>
       </c>
       <c r="H728" t="n">
-        <v>0.885</v>
+        <v>0.905</v>
       </c>
       <c r="I728" t="n">
-        <v>136400</v>
+        <v>139300</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25882,28 +25882,28 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F729" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="G729" t="n">
         <v>0.885</v>
       </c>
       <c r="H729" t="n">
-        <v>0.89</v>
+        <v>0.895</v>
       </c>
       <c r="I729" t="n">
-        <v>1026200</v>
+        <v>3241600</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25920,25 +25920,25 @@
         <v>0.895</v>
       </c>
       <c r="F730" t="n">
-        <v>0.91</v>
+        <v>0.895</v>
       </c>
       <c r="G730" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H730" t="n">
         <v>0.895</v>
       </c>
-      <c r="H730" t="n">
-        <v>0.91</v>
-      </c>
       <c r="I730" t="n">
-        <v>460500</v>
+        <v>303200</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25952,28 +25952,28 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>0.905</v>
+        <v>0.895</v>
       </c>
       <c r="F731" t="n">
-        <v>0.915</v>
+        <v>0.895</v>
       </c>
       <c r="G731" t="n">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="H731" t="n">
-        <v>0.915</v>
+        <v>0.895</v>
       </c>
       <c r="I731" t="n">
-        <v>144600</v>
+        <v>796100</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25987,28 +25987,28 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>0.91</v>
+        <v>0.895</v>
       </c>
       <c r="F732" t="n">
-        <v>0.915</v>
+        <v>0.9</v>
       </c>
       <c r="G732" t="n">
-        <v>0.905</v>
+        <v>0.89</v>
       </c>
       <c r="H732" t="n">
-        <v>0.915</v>
+        <v>0.895</v>
       </c>
       <c r="I732" t="n">
-        <v>384500</v>
+        <v>295300</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>0.91</v>
+        <v>0.895</v>
       </c>
       <c r="F733" t="n">
-        <v>0.91</v>
+        <v>0.895</v>
       </c>
       <c r="G733" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H733" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="I733" t="n">
-        <v>738000</v>
+        <v>71500</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -26057,28 +26057,28 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="F734" t="n">
         <v>0.9</v>
       </c>
       <c r="G734" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H734" t="n">
         <v>0.9</v>
       </c>
       <c r="I734" t="n">
-        <v>85700</v>
+        <v>57300</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -26095,25 +26095,25 @@
         <v>0.9</v>
       </c>
       <c r="F735" t="n">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
       <c r="G735" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H735" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="I735" t="n">
-        <v>283200</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -26127,28 +26127,28 @@
         </is>
       </c>
       <c r="E736" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F736" t="n">
         <v>0.9</v>
       </c>
-      <c r="F736" t="n">
-        <v>0.905</v>
-      </c>
       <c r="G736" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H736" t="n">
         <v>0.895</v>
       </c>
-      <c r="H736" t="n">
-        <v>0.9</v>
-      </c>
       <c r="I736" t="n">
-        <v>106400</v>
+        <v>132200</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -26165,7 +26165,7 @@
         <v>0.895</v>
       </c>
       <c r="F737" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="G737" t="n">
         <v>0.885</v>
@@ -26174,16 +26174,16 @@
         <v>0.885</v>
       </c>
       <c r="I737" t="n">
-        <v>418800</v>
+        <v>136400</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -26197,28 +26197,28 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>0.885</v>
+        <v>0.89</v>
       </c>
       <c r="F738" t="n">
         <v>0.895</v>
       </c>
       <c r="G738" t="n">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
       <c r="H738" t="n">
-        <v>0.895</v>
+        <v>0.89</v>
       </c>
       <c r="I738" t="n">
-        <v>98600</v>
+        <v>1026200</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -26232,28 +26232,28 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>0.89</v>
+        <v>0.895</v>
       </c>
       <c r="F739" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G739" t="n">
         <v>0.895</v>
       </c>
-      <c r="G739" t="n">
-        <v>0.89</v>
-      </c>
       <c r="H739" t="n">
-        <v>0.895</v>
+        <v>0.91</v>
       </c>
       <c r="I739" t="n">
-        <v>38400</v>
+        <v>460500</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -26267,28 +26267,28 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.89</v>
+        <v>0.905</v>
       </c>
       <c r="F740" t="n">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
       <c r="G740" t="n">
-        <v>0.885</v>
+        <v>0.9</v>
       </c>
       <c r="H740" t="n">
-        <v>0.885</v>
+        <v>0.915</v>
       </c>
       <c r="I740" t="n">
-        <v>311000</v>
+        <v>144600</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -26302,28 +26302,28 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>0.885</v>
+        <v>0.91</v>
       </c>
       <c r="F741" t="n">
-        <v>0.885</v>
+        <v>0.915</v>
       </c>
       <c r="G741" t="n">
-        <v>0.875</v>
+        <v>0.905</v>
       </c>
       <c r="H741" t="n">
-        <v>0.875</v>
+        <v>0.915</v>
       </c>
       <c r="I741" t="n">
-        <v>317700</v>
+        <v>384500</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -26337,28 +26337,28 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>0.875</v>
+        <v>0.91</v>
       </c>
       <c r="F742" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G742" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="H742" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="I742" t="n">
-        <v>161000</v>
+        <v>738000</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -26372,28 +26372,28 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="F743" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="G743" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="H743" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I743" t="n">
-        <v>202300</v>
+        <v>85700</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -26407,28 +26407,28 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="F744" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G744" t="n">
         <v>0.9</v>
-      </c>
-      <c r="G744" t="n">
-        <v>0.895</v>
       </c>
       <c r="H744" t="n">
         <v>0.9</v>
       </c>
       <c r="I744" t="n">
-        <v>116000</v>
+        <v>283200</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -26442,7 +26442,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="F745" t="n">
         <v>0.905</v>
@@ -26454,16 +26454,16 @@
         <v>0.9</v>
       </c>
       <c r="I745" t="n">
-        <v>12000000</v>
+        <v>106400</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -26477,28 +26477,28 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="F746" t="n">
         <v>0.9</v>
       </c>
       <c r="G746" t="n">
-        <v>0.895</v>
+        <v>0.885</v>
       </c>
       <c r="H746" t="n">
-        <v>0.895</v>
+        <v>0.885</v>
       </c>
       <c r="I746" t="n">
-        <v>346500</v>
+        <v>418800</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -26512,28 +26512,28 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>0.89</v>
+        <v>0.885</v>
       </c>
       <c r="F747" t="n">
         <v>0.895</v>
       </c>
       <c r="G747" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="H747" t="n">
-        <v>0.85</v>
+        <v>0.895</v>
       </c>
       <c r="I747" t="n">
-        <v>642100</v>
+        <v>98600</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -26547,28 +26547,28 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="F748" t="n">
-        <v>0.88</v>
+        <v>0.895</v>
       </c>
       <c r="G748" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="H748" t="n">
-        <v>0.875</v>
+        <v>0.895</v>
       </c>
       <c r="I748" t="n">
-        <v>633800</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -26582,28 +26582,28 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>0.875</v>
+        <v>0.89</v>
       </c>
       <c r="F749" t="n">
-        <v>0.875</v>
+        <v>0.895</v>
       </c>
       <c r="G749" t="n">
-        <v>0.86</v>
+        <v>0.885</v>
       </c>
       <c r="H749" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="I749" t="n">
-        <v>280400</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -26617,53 +26617,368 @@
         </is>
       </c>
       <c r="E750" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G750" t="n">
         <v>0.875</v>
       </c>
-      <c r="F750" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G750" t="n">
-        <v>0.855</v>
-      </c>
       <c r="H750" t="n">
-        <v>0.86</v>
+        <v>0.875</v>
       </c>
       <c r="I750" t="n">
-        <v>652300</v>
+        <v>317700</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F751" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G751" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I751" t="n">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F752" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G752" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I752" t="n">
+        <v>202300</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F753" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I753" t="n">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G754" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I754" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G755" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I755" t="n">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F756" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I756" t="n">
+        <v>642100</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F757" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I757" t="n">
+        <v>633800</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I758" t="n">
+        <v>280400</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I759" t="n">
+        <v>652300</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B751" t="inlineStr">
+      <c r="B760" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C751" t="inlineStr">
-        <is>
-          <t>5280</t>
-        </is>
-      </c>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>KIPREIT</t>
-        </is>
-      </c>
-      <c r="E751" t="n">
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
         <v>0.85</v>
       </c>
-      <c r="F751" t="n">
+      <c r="F760" t="n">
         <v>0.85</v>
       </c>
-      <c r="G751" t="n">
+      <c r="G760" t="n">
         <v>0.795</v>
       </c>
-      <c r="H751" t="n">
+      <c r="H760" t="n">
         <v>0.82</v>
       </c>
-      <c r="I751" t="n">
+      <c r="I760" t="n">
         <v>1225900</v>
       </c>
     </row>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I760"/>
+  <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26982,6 +26982,41 @@
         <v>1225900</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F761" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G761" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I761" t="n">
+        <v>908600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I761"/>
+  <dimension ref="A1:I762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27017,6 +27017,41 @@
         <v>908600</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F762" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G762" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I762" t="n">
+        <v>498300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27052,6 +27052,41 @@
         <v>498300</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G763" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I763" t="n">
+        <v>560500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I763"/>
+  <dimension ref="A1:I764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27087,6 +27087,41 @@
         <v>560500</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G764" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I764" t="n">
+        <v>867800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I764"/>
+  <dimension ref="A1:I765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27122,6 +27122,41 @@
         <v>867800</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G765" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I765" t="n">
+        <v>645700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I765"/>
+  <dimension ref="A1:I766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27157,6 +27157,41 @@
         <v>645700</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F766" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G766" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I766" t="n">
+        <v>890700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I766"/>
+  <dimension ref="A1:I767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27192,6 +27192,41 @@
         <v>890700</v>
       </c>
     </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F767" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G767" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I767" t="n">
+        <v>400600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I767"/>
+  <dimension ref="A1:I768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27227,6 +27227,41 @@
         <v>400600</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I768" t="n">
+        <v>369600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I768"/>
+  <dimension ref="A1:I769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27262,6 +27262,41 @@
         <v>369600</v>
       </c>
     </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F769" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G769" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I769" t="n">
+        <v>56200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I769"/>
+  <dimension ref="A1:I770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27297,6 +27297,41 @@
         <v>56200</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F770" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G770" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I770" t="n">
+        <v>327400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I770"/>
+  <dimension ref="A1:I771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27332,6 +27332,41 @@
         <v>327400</v>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G771" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I771" t="n">
+        <v>148300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I771"/>
+  <dimension ref="A1:I772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27367,6 +27367,41 @@
         <v>148300</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F772" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G772" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I772" t="n">
+        <v>81900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I772"/>
+  <dimension ref="A1:I773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27402,6 +27402,41 @@
         <v>81900</v>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G773" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I773" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I773"/>
+  <dimension ref="A1:I774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27437,6 +27437,41 @@
         <v>64000</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F774" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G774" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I774" t="n">
+        <v>220600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I774"/>
+  <dimension ref="A1:I775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27472,6 +27472,41 @@
         <v>220600</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G775" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I775" t="n">
+        <v>152000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I775"/>
+  <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27507,6 +27507,41 @@
         <v>152000</v>
       </c>
     </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F776" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G776" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I776" t="n">
+        <v>88300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I776"/>
+  <dimension ref="A1:I777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27542,6 +27542,41 @@
         <v>88300</v>
       </c>
     </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F777" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G777" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I777" t="n">
+        <v>227500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I777"/>
+  <dimension ref="A1:I778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27577,6 +27577,41 @@
         <v>227500</v>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G778" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I778" t="n">
+        <v>144500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I778"/>
+  <dimension ref="A1:I779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27612,6 +27612,41 @@
         <v>144500</v>
       </c>
     </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G779" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I779" t="n">
+        <v>241700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I779"/>
+  <dimension ref="A1:I780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27647,6 +27647,41 @@
         <v>241700</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G780" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I780" t="n">
+        <v>62200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I780"/>
+  <dimension ref="A1:I781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27682,6 +27682,41 @@
         <v>62200</v>
       </c>
     </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G781" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I781" t="n">
+        <v>33100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I781"/>
+  <dimension ref="A1:I782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27717,6 +27717,41 @@
         <v>33100</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F782" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G782" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I782" t="n">
+        <v>96100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I782"/>
+  <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27752,6 +27752,41 @@
         <v>96100</v>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G783" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I783" t="n">
+        <v>152400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I783"/>
+  <dimension ref="A1:I784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27787,6 +27787,41 @@
         <v>152400</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F784" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G784" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I784" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I784"/>
+  <dimension ref="A1:I785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27822,6 +27822,41 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F785" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G785" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I785" t="n">
+        <v>307800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I785"/>
+  <dimension ref="A1:I787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27857,6 +27857,76 @@
         <v>307800</v>
       </c>
     </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F786" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I786" t="n">
+        <v>136300</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G787" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I787" t="n">
+        <v>169100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I787"/>
+  <dimension ref="A1:I788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27927,6 +27927,41 @@
         <v>169100</v>
       </c>
     </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G788" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I788" t="n">
+        <v>182900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I788"/>
+  <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27962,6 +27962,111 @@
         <v>182900</v>
       </c>
     </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G789" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I789" t="n">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I790" t="n">
+        <v>351000</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G791" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I791" t="n">
+        <v>101500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I791"/>
+  <dimension ref="A1:I792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28067,6 +28067,41 @@
         <v>101500</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F792" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G792" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I792" t="n">
+        <v>85100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I792"/>
+  <dimension ref="A1:I793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28102,6 +28102,41 @@
         <v>85100</v>
       </c>
     </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G793" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I793" t="n">
+        <v>89100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5280.xlsx
+++ b/data/5280.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I793"/>
+  <dimension ref="A1:I796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28137,6 +28137,111 @@
         <v>89100</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G794" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I794" t="n">
+        <v>197200</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G795" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I795" t="n">
+        <v>235400</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>KIPREIT</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G796" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I796" t="n">
+        <v>434100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
